--- a/DRL_Automated_Trading/results14/HEN3.DE.xlsx
+++ b/DRL_Automated_Trading/results14/HEN3.DE.xlsx
@@ -7884,25 +7884,25 @@
         <v>44439</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>984790.148010271</v>
+        <v>9958.450821037621</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>11664</v>
       </c>
       <c r="F233" t="n">
-        <v>984790.148010271</v>
+        <v>984135.6916657642</v>
       </c>
       <c r="G233" t="n">
         <v>83.51999664306641</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>654.456344506836</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>974831.6971892334</v>
       </c>
       <c r="J233" t="n">
         <v>0</v>
@@ -7919,25 +7919,25 @@
         <v>-1</v>
       </c>
       <c r="D234" t="n">
-        <v>984790.148010271</v>
+        <v>981965.8571301685</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>984790.148010271</v>
+        <v>981965.8571301685</v>
       </c>
       <c r="G234" t="n">
         <v>83.38999938964844</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>653.5465717285157</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>0</v>
+        <v>-2824.290880102548</v>
       </c>
     </row>
     <row r="235">
@@ -7951,13 +7951,13 @@
         <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>984790.148010271</v>
+        <v>981965.8571301685</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>984790.148010271</v>
+        <v>981965.8571301685</v>
       </c>
       <c r="G235" t="n">
         <v>82.3599967956543</v>
@@ -7983,13 +7983,13 @@
         <v>-1</v>
       </c>
       <c r="D236" t="n">
-        <v>984790.148010271</v>
+        <v>981965.8571301685</v>
       </c>
       <c r="E236" t="n">
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>984790.148010271</v>
+        <v>981965.8571301685</v>
       </c>
       <c r="G236" t="n">
         <v>82.29000091552734</v>
@@ -8015,13 +8015,13 @@
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>984790.148010271</v>
+        <v>981965.8571301685</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>984790.148010271</v>
+        <v>981965.8571301685</v>
       </c>
       <c r="G237" t="n">
         <v>82.06999969482422</v>
@@ -8047,13 +8047,13 @@
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>984790.148010271</v>
+        <v>981965.8571301685</v>
       </c>
       <c r="E238" t="n">
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>984790.148010271</v>
+        <v>981965.8571301685</v>
       </c>
       <c r="G238" t="n">
         <v>81.43000030517578</v>
@@ -8079,13 +8079,13 @@
         <v>-1</v>
       </c>
       <c r="D239" t="n">
-        <v>984790.148010271</v>
+        <v>981965.8571301685</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>984790.148010271</v>
+        <v>981965.8571301685</v>
       </c>
       <c r="G239" t="n">
         <v>80.84999847412109</v>
@@ -8111,13 +8111,13 @@
         <v>-1</v>
       </c>
       <c r="D240" t="n">
-        <v>984790.148010271</v>
+        <v>981965.8571301685</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>984790.148010271</v>
+        <v>981965.8571301685</v>
       </c>
       <c r="G240" t="n">
         <v>79.27999877929688</v>
@@ -8143,13 +8143,13 @@
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>984790.148010271</v>
+        <v>981965.8571301685</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>984790.148010271</v>
+        <v>981965.8571301685</v>
       </c>
       <c r="G241" t="n">
         <v>79.34000015258789</v>
@@ -8175,22 +8175,22 @@
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>10011.15452818179</v>
+        <v>9960.877026016555</v>
       </c>
       <c r="E242" t="n">
-        <v>12298</v>
+        <v>12263</v>
       </c>
       <c r="F242" t="n">
-        <v>984135.7232690265</v>
+        <v>981313.0957989048</v>
       </c>
       <c r="G242" t="n">
         <v>79.20999908447266</v>
       </c>
       <c r="H242" t="n">
-        <v>654.4247412445069</v>
+        <v>652.7613312637329</v>
       </c>
       <c r="I242" t="n">
-        <v>974778.9934820893</v>
+        <v>972004.9801041519</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -8207,25 +8207,25 @@
         <v>-1</v>
       </c>
       <c r="D243" t="n">
-        <v>979794.1215447818</v>
+        <v>976983.651157954</v>
       </c>
       <c r="E243" t="n">
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>979794.1215447818</v>
+        <v>976983.651157954</v>
       </c>
       <c r="G243" t="n">
         <v>78.90999984741211</v>
       </c>
       <c r="H243" t="n">
-        <v>652.2111068740845</v>
+        <v>650.5539968772889</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>-4996.02646548918</v>
+        <v>-4982.205972214462</v>
       </c>
     </row>
     <row r="244">
@@ -8239,13 +8239,13 @@
         <v>-1</v>
       </c>
       <c r="D244" t="n">
-        <v>979794.1215447818</v>
+        <v>976983.651157954</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>979794.1215447818</v>
+        <v>976983.651157954</v>
       </c>
       <c r="G244" t="n">
         <v>78.52999877929688</v>
@@ -8271,13 +8271,13 @@
         <v>-1</v>
       </c>
       <c r="D245" t="n">
-        <v>979794.1215447818</v>
+        <v>976983.651157954</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>979794.1215447818</v>
+        <v>976983.651157954</v>
       </c>
       <c r="G245" t="n">
         <v>79.56000137329102</v>
@@ -8303,13 +8303,13 @@
         <v>-1</v>
       </c>
       <c r="D246" t="n">
-        <v>979794.1215447818</v>
+        <v>976983.651157954</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>979794.1215447818</v>
+        <v>976983.651157954</v>
       </c>
       <c r="G246" t="n">
         <v>78.95000076293945</v>
@@ -8335,13 +8335,13 @@
         <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>979794.1215447818</v>
+        <v>976983.651157954</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>979794.1215447818</v>
+        <v>976983.651157954</v>
       </c>
       <c r="G247" t="n">
         <v>77.47999954223633</v>
@@ -8367,22 +8367,22 @@
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>9935.326557637369</v>
+        <v>9891.165019591124</v>
       </c>
       <c r="E248" t="n">
-        <v>12270</v>
+        <v>12235</v>
       </c>
       <c r="F248" t="n">
-        <v>979142.647152425</v>
+        <v>976333.8355556324</v>
       </c>
       <c r="G248" t="n">
         <v>78.9900016784668</v>
       </c>
       <c r="H248" t="n">
-        <v>651.4743923568726</v>
+        <v>649.8156023216249</v>
       </c>
       <c r="I248" t="n">
-        <v>969858.7949871444</v>
+        <v>967092.4861383629</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -8399,25 +8399,25 @@
         <v>-1</v>
       </c>
       <c r="D249" t="n">
-        <v>986216.6477979786</v>
+        <v>983387.4581838596</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>986216.6477979786</v>
+        <v>983387.4581838596</v>
       </c>
       <c r="G249" t="n">
         <v>79.62000274658203</v>
       </c>
       <c r="H249" t="n">
-        <v>656.112460220337</v>
+        <v>654.4404401626588</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>6422.52625319676</v>
+        <v>6403.807025905582</v>
       </c>
     </row>
     <row r="250">
@@ -8431,13 +8431,13 @@
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>986216.6477979786</v>
+        <v>983387.4581838596</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>986216.6477979786</v>
+        <v>983387.4581838596</v>
       </c>
       <c r="G250" t="n">
         <v>80.42000198364258</v>
@@ -8463,13 +8463,13 @@
         <v>-1</v>
       </c>
       <c r="D251" t="n">
-        <v>986216.6477979786</v>
+        <v>983387.4581838596</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>986216.6477979786</v>
+        <v>983387.4581838596</v>
       </c>
       <c r="G251" t="n">
         <v>79.13000106811523</v>
@@ -8495,22 +8495,22 @@
         <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>10019.42077979394</v>
+        <v>10012.57356101871</v>
       </c>
       <c r="E252" t="n">
-        <v>12105</v>
+        <v>12070</v>
       </c>
       <c r="F252" t="n">
-        <v>985561.3726268704</v>
+        <v>982733.8754027545</v>
       </c>
       <c r="G252" t="n">
         <v>80.59000015258789</v>
       </c>
       <c r="H252" t="n">
-        <v>655.2751711082459</v>
+        <v>653.5827811050416</v>
       </c>
       <c r="I252" t="n">
-        <v>976197.2270181846</v>
+        <v>973374.8846228409</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -8527,25 +8527,25 @@
         <v>-1</v>
       </c>
       <c r="D253" t="n">
-        <v>991075.9230201123</v>
+        <v>988232.2789547107</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>991075.9230201123</v>
+        <v>988232.2789547107</v>
       </c>
       <c r="G253" t="n">
         <v>81.09999847412109</v>
       </c>
       <c r="H253" t="n">
-        <v>658.9792889175416</v>
+        <v>657.276188949585</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
       <c r="J253" t="n">
-        <v>4859.275222133729</v>
+        <v>4844.820770851104</v>
       </c>
     </row>
     <row r="254">
@@ -8559,13 +8559,13 @@
         <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>991075.9230201123</v>
+        <v>988232.2789547107</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>991075.9230201123</v>
+        <v>988232.2789547107</v>
       </c>
       <c r="G254" t="n">
         <v>81.38999938964844</v>
@@ -8591,22 +8591,22 @@
         <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>10073.13732888461</v>
+        <v>10064.79339142029</v>
       </c>
       <c r="E255" t="n">
-        <v>12109</v>
+        <v>12074</v>
       </c>
       <c r="F255" t="n">
-        <v>990417.766242764</v>
+        <v>987575.8223373431</v>
       </c>
       <c r="G255" t="n">
         <v>80.95999908447266</v>
       </c>
       <c r="H255" t="n">
-        <v>658.1567773483276</v>
+        <v>656.4566173675538</v>
       </c>
       <c r="I255" t="n">
-        <v>981002.7856912278</v>
+        <v>978167.4855632904</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
